--- a/UBICACIONES.xlsx
+++ b/UBICACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D9F23C-1104-4505-9631-79B30F1D68F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E3C66-C950-493E-81B6-D8ADE77EEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{54F87574-A969-4FA6-80C0-AB83548A50B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Direccion</t>
   </si>
@@ -195,6 +195,63 @@
   </si>
   <si>
     <t>lat</t>
+  </si>
+  <si>
+    <t>5.117866616512406, -74.4793756761238</t>
+  </si>
+  <si>
+    <t>IGLESIA QUEBRADANEGRA</t>
+  </si>
+  <si>
+    <t>5.117773669933767, -74.47843667592963</t>
+  </si>
+  <si>
+    <t>PISCINA MUNICIPAS</t>
+  </si>
+  <si>
+    <t>5.103548803037894, -74.47447565891814</t>
+  </si>
+  <si>
+    <t>ESCUELA AGUAFRÍA</t>
+  </si>
+  <si>
+    <t>5.117111864436012, -74.47856280362896</t>
+  </si>
+  <si>
+    <t>FERRETERÍA</t>
+  </si>
+  <si>
+    <t>5.121633578833071, -74.45123525313058</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD TOBIA</t>
+  </si>
+  <si>
+    <t>5.121895774159247, -74.45125133073884</t>
+  </si>
+  <si>
+    <t>PARQUE TIERRA DE AVENTURA</t>
+  </si>
+  <si>
+    <t>5.081961639267556, -74.49430819666703</t>
+  </si>
+  <si>
+    <t>TOBOGANES</t>
+  </si>
+  <si>
+    <t>5.09938518118419, -74.49281595552621</t>
+  </si>
+  <si>
+    <t>5.103999787513112, -74.49342806949706</t>
+  </si>
+  <si>
+    <t>MINERALES HC</t>
+  </si>
+  <si>
+    <t>5.07315669684111, -74.45483900407832</t>
+  </si>
+  <si>
+    <t>CLUB PAYANDÉ</t>
   </si>
 </sst>
 </file>
@@ -245,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -260,6 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,15 +652,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA98441A-19BD-4B3A-9A14-CD979EB56D45}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,6 +1161,226 @@
         <v>-74.479447191700004</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5.1178666165123996</v>
+      </c>
+      <c r="F26">
+        <v>-74.479375676123794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>5.1177736699337597</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-74.478436675929601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>5.1035488030378904</v>
+      </c>
+      <c r="F28">
+        <v>-74.474475658918095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>5.1171118644360103</v>
+      </c>
+      <c r="F29">
+        <v>-74.478562803628904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>5.1216335788330696</v>
+      </c>
+      <c r="F30">
+        <v>-74.451235253130505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>5.1218957741592401</v>
+      </c>
+      <c r="F31">
+        <v>-74.451251330738799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="3">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>5.0819616392675497</v>
+      </c>
+      <c r="F32">
+        <v>-74.494308196667006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>5.0993851811841902</v>
+      </c>
+      <c r="F33">
+        <v>-74.492815955526197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="3">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>5.1039997875131098</v>
+      </c>
+      <c r="F34">
+        <v>-74.493428069497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>5.0731566968411101</v>
+      </c>
+      <c r="F35">
+        <v>-74.454839004078295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>5.0731566968411101</v>
+      </c>
+      <c r="F36">
+        <v>-74.454839004078295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
